--- a/data/union/End/coefic-reglog-test.xlsx
+++ b/data/union/End/coefic-reglog-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hcgalvan\Repositorios\hcgalvan_project\data\union\End\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4EEE48C-AB51-4D0A-B77D-D21B74234497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1586268E-ABDC-4787-8941-787D7A9C9B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{BA65EA46-E28E-40C3-88B0-C228293F9F07}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="142">
   <si>
     <t>Coefficients:</t>
   </si>
@@ -446,12 +446,22 @@
   </si>
   <si>
     <t xml:space="preserve">ecpl_iso  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          sd</t>
+  </si>
+  <si>
+    <t>&gt;0,9999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -504,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -534,6 +544,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,7 +867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D786833-276E-4440-9A26-CF9077FD24E2}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="B15" workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
@@ -1098,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF0C48B-6BA4-436F-A10A-43AE167788D3}">
-  <dimension ref="B3:DF106"/>
+  <dimension ref="B3:DP106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CP1" workbookViewId="0">
-      <selection activeCell="CT19" sqref="CT19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CZ2" workbookViewId="0">
+      <selection activeCell="DN23" sqref="DN23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1128,7 @@
     <col min="89" max="89" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:110" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -1149,8 +1165,11 @@
       <c r="CY3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="2:110" x14ac:dyDescent="0.25">
+      <c r="DI3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>47</v>
       </c>
@@ -1187,8 +1206,11 @@
       <c r="CY5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="2:110" x14ac:dyDescent="0.25">
+      <c r="DI5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>48</v>
       </c>
@@ -1234,8 +1256,11 @@
       <c r="CY6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="2:110" x14ac:dyDescent="0.25">
+      <c r="DI6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>49</v>
       </c>
@@ -1272,8 +1297,11 @@
       <c r="CY8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="2:110" x14ac:dyDescent="0.25">
+      <c r="DI8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>50</v>
       </c>
@@ -1310,8 +1338,11 @@
       <c r="CY9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="2:110" x14ac:dyDescent="0.25">
+      <c r="DI9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>51</v>
       </c>
@@ -1348,8 +1379,11 @@
       <c r="CY10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="2:110" x14ac:dyDescent="0.25">
+      <c r="DI10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>52</v>
       </c>
@@ -1386,8 +1420,11 @@
       <c r="CY11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="2:110" x14ac:dyDescent="0.25">
+      <c r="DI11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>53</v>
       </c>
@@ -1424,8 +1461,11 @@
       <c r="CY12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="2:110" x14ac:dyDescent="0.25">
+      <c r="DI12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>54</v>
       </c>
@@ -1462,8 +1502,11 @@
       <c r="CY13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="2:110" x14ac:dyDescent="0.25">
+      <c r="DI13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -1752,8 +1795,32 @@
       <c r="DF15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="2:110" x14ac:dyDescent="0.25">
+      <c r="DI15" t="s">
+        <v>55</v>
+      </c>
+      <c r="DJ15" t="s">
+        <v>56</v>
+      </c>
+      <c r="DK15" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL15" t="s">
+        <v>58</v>
+      </c>
+      <c r="DM15" t="s">
+        <v>59</v>
+      </c>
+      <c r="DN15" t="s">
+        <v>60</v>
+      </c>
+      <c r="DO15" t="s">
+        <v>61</v>
+      </c>
+      <c r="DP15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>63</v>
       </c>
@@ -2042,8 +2109,32 @@
       <c r="DF16">
         <v>0.21249999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="2:110" x14ac:dyDescent="0.25">
+      <c r="DI16" t="s">
+        <v>63</v>
+      </c>
+      <c r="DJ16">
+        <v>0</v>
+      </c>
+      <c r="DK16">
+        <v>5336.37</v>
+      </c>
+      <c r="DL16">
+        <v>1</v>
+      </c>
+      <c r="DM16">
+        <v>0</v>
+      </c>
+      <c r="DN16" t="s">
+        <v>140</v>
+      </c>
+      <c r="DO16">
+        <v>0</v>
+      </c>
+      <c r="DP16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>64</v>
       </c>
@@ -2332,8 +2423,32 @@
       <c r="DF17">
         <v>0.63900000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="2:110" x14ac:dyDescent="0.25">
+      <c r="DI17" t="s">
+        <v>64</v>
+      </c>
+      <c r="DJ17">
+        <v>-17.309999999999999</v>
+      </c>
+      <c r="DK17">
+        <v>4357.13</v>
+      </c>
+      <c r="DL17" s="8">
+        <v>2.9999999999999997E-8</v>
+      </c>
+      <c r="DM17">
+        <v>0</v>
+      </c>
+      <c r="DN17" t="s">
+        <v>140</v>
+      </c>
+      <c r="DO17" s="8">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="DP17">
+        <v>0.99680000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>65</v>
       </c>
@@ -2575,7 +2690,7 @@
         <v>4.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:110" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:120" x14ac:dyDescent="0.25">
       <c r="U19" t="s">
         <v>75</v>
       </c>
@@ -2668,8 +2783,17 @@
       </c>
       <c r="DB19" s="8"/>
       <c r="DD19" s="8"/>
-    </row>
-    <row r="20" spans="2:110" x14ac:dyDescent="0.25">
+      <c r="DI19" t="s">
+        <v>66</v>
+      </c>
+      <c r="DJ19" t="s">
+        <v>67</v>
+      </c>
+      <c r="DK19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>66</v>
       </c>
@@ -2742,8 +2866,17 @@
       <c r="CR20">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="2:110" x14ac:dyDescent="0.25">
+      <c r="DI20" t="s">
+        <v>69</v>
+      </c>
+      <c r="DJ20">
+        <v>-17.66</v>
+      </c>
+      <c r="DK20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>69</v>
       </c>
@@ -2852,8 +2985,23 @@
       <c r="DA21" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" spans="2:110" x14ac:dyDescent="0.25">
+      <c r="DI21" t="s">
+        <v>70</v>
+      </c>
+      <c r="DJ21">
+        <v>35.32</v>
+      </c>
+      <c r="DK21">
+        <v>44</v>
+      </c>
+      <c r="DM21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="DN21" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>70</v>
       </c>
@@ -2962,8 +3110,24 @@
       <c r="DA22">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="2:110" x14ac:dyDescent="0.25">
+      <c r="DI22" t="s">
+        <v>71</v>
+      </c>
+      <c r="DJ22">
+        <v>1</v>
+      </c>
+      <c r="DK22" t="s">
+        <v>72</v>
+      </c>
+      <c r="DM22" s="7">
+        <v>1</v>
+      </c>
+      <c r="DN22" s="7">
+        <f>+EXP(DJ$16+DJ$17*DM22)/(1+EXP(DJ$16+DJ$17*DM22))</f>
+        <v>3.0364246266023646E-8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>71</v>
       </c>
@@ -3054,8 +3218,15 @@
       <c r="DA23">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="2:110" x14ac:dyDescent="0.25">
+      <c r="DM23" s="7">
+        <v>0</v>
+      </c>
+      <c r="DN23" s="7">
+        <f>+EXP(DJ$16+DJ$17*DM23)/(1+EXP(DJ$16+DJ$17*DM23))</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:120" x14ac:dyDescent="0.25">
       <c r="D24" s="7" t="s">
         <v>74</v>
       </c>
@@ -3153,7 +3324,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="2:110" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:120" x14ac:dyDescent="0.25">
       <c r="D25" s="7">
         <v>1</v>
       </c>
@@ -3220,14 +3391,14 @@
       <c r="CI25" s="7">
         <v>1</v>
       </c>
-      <c r="CJ25" s="7">
+      <c r="CJ25" s="12">
         <f>+EXP(CH16+CH17*CI25+CH18*CI25)/(1+EXP(CH16+CH17*CI25+CH18*CI25))</f>
         <v>2.1668266316960529E-2</v>
       </c>
       <c r="CR25" s="7">
         <v>1</v>
       </c>
-      <c r="CS25" s="7">
+      <c r="CS25" s="13">
         <f>+EXP(CQ16+CQ17*CR25)/(1+EXP(CQ16+CQ17*CR25))</f>
         <v>2.5477338915625971E-3</v>
       </c>
@@ -3235,14 +3406,12 @@
         <v>1</v>
       </c>
       <c r="DB25" s="7">
-        <f>+EXP(CZ16+CZ17*DA25+CZ18*DA25+CZ19*DA25)/(1+EXP(CZ16+CZ17*DA25+CZ18*DA25+CZ19*DA25))</f>
+        <f>+EXP(CZ16+CZ17*DA25+CZ18*DA25)/(1+EXP(CZ16+CZ17*DA25+CZ18*DA25))</f>
         <v>1.0583344344660139E-3</v>
       </c>
-      <c r="DC25" s="8">
-        <v>3.54488958590343E-6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:110" x14ac:dyDescent="0.25">
+      <c r="DC25" s="8"/>
+    </row>
+    <row r="26" spans="2:120" x14ac:dyDescent="0.25">
       <c r="D26" s="7">
         <v>0</v>
       </c>
@@ -3309,14 +3478,14 @@
       <c r="CI26" s="7">
         <v>0</v>
       </c>
-      <c r="CJ26" s="7">
+      <c r="CJ26" s="12">
         <f>+EXP(CH16+CH17*CI26+CH18*CI26)/(1+EXP(CH16+CH17*CI26+CH18*CI26))</f>
         <v>0.99977518322976666</v>
       </c>
       <c r="CR26" s="7">
         <v>0</v>
       </c>
-      <c r="CS26" s="7">
+      <c r="CS26" s="13">
         <f>+EXP(CQ16+CQ17*CR26)/(1+EXP(CQ16+CQ17*CR26))</f>
         <v>0.8160782725804957</v>
       </c>
@@ -3324,11 +3493,11 @@
         <v>0</v>
       </c>
       <c r="DB26" s="7">
-        <f>+EXP(CZ16+CZ18*DA26+CZ19*DA26)/(1+EXP(CZ16+CZ18*DA26+CZ19*DA26))</f>
+        <f>+EXP(CZ16+CZ17*DA26+CZ18*DA26)/(1+EXP(CZ16+CZ17*DA26+CZ18*DA26))</f>
         <v>0.93086157965665317</v>
       </c>
     </row>
-    <row r="28" spans="2:110" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>121</v>
       </c>
@@ -3336,12 +3505,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="2:110" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:120" x14ac:dyDescent="0.25">
       <c r="U29" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="2:110" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>122</v>
       </c>
@@ -3349,7 +3518,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="2:110" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>123</v>
       </c>
@@ -3360,7 +3529,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="2:110" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>124</v>
       </c>

--- a/data/union/End/coefic-reglog-test.xlsx
+++ b/data/union/End/coefic-reglog-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hcgalvan\Repositorios\hcgalvan_project\data\union\End\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1586268E-ABDC-4787-8941-787D7A9C9B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D4A02C-335E-4B59-94EC-24EB19A238AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{BA65EA46-E28E-40C3-88B0-C228293F9F07}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="151">
   <si>
     <t>Coefficients:</t>
   </si>
@@ -448,21 +449,50 @@
     <t xml:space="preserve">ecpl_iso  </t>
   </si>
   <si>
-    <t xml:space="preserve">          sd</t>
-  </si>
-  <si>
-    <t>&gt;0,9999</t>
+    <t>como p-valor son menor a 0,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entonces son estadísticamente </t>
+  </si>
+  <si>
+    <t>significativos el efecto de la regresora</t>
+  </si>
+  <si>
+    <t>los coeficientes positivos son más probables</t>
+  </si>
+  <si>
+    <t>los coeficientes negativos son menos probables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   2.5 %       97.5 %</t>
+  </si>
+  <si>
+    <t>(Intercept) 6.078984e+00 4.190475e+07</t>
+  </si>
+  <si>
+    <t>age         7.376312e-01 9.765821e-01</t>
+  </si>
+  <si>
+    <t>sl2l_iso    3.089798e-11 2.359230e-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gend_F_1  </t>
+  </si>
+  <si>
+    <t>CON SUJETOS DE CONTROL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="174" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +505,13 @@
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -511,10 +548,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -545,15 +583,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -867,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D786833-276E-4440-9A26-CF9077FD24E2}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
@@ -1114,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF0C48B-6BA4-436F-A10A-43AE167788D3}">
-  <dimension ref="B3:DP106"/>
+  <dimension ref="B3:EH106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CZ2" workbookViewId="0">
-      <selection activeCell="DN23" sqref="DN23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BV4" workbookViewId="0">
+      <selection activeCell="CA28" sqref="CA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,9 +1171,12 @@
     <col min="85" max="85" width="17" customWidth="1"/>
     <col min="88" max="88" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="16.5703125" customWidth="1"/>
+    <col min="113" max="113" width="21.5703125" customWidth="1"/>
+    <col min="122" max="122" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:120" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:138" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -1168,8 +1216,17 @@
       <c r="DI3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="2:120" x14ac:dyDescent="0.25">
+      <c r="DR3" t="s">
+        <v>46</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>150</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:138" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>47</v>
       </c>
@@ -1209,8 +1266,14 @@
       <c r="DI5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="2:120" x14ac:dyDescent="0.25">
+      <c r="DR5" t="s">
+        <v>47</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:138" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>48</v>
       </c>
@@ -1259,8 +1322,14 @@
       <c r="DI6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="2:120" x14ac:dyDescent="0.25">
+      <c r="DR6" t="s">
+        <v>48</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:138" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>49</v>
       </c>
@@ -1300,8 +1369,14 @@
       <c r="DI8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="2:120" x14ac:dyDescent="0.25">
+      <c r="DR8" t="s">
+        <v>49</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:138" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>50</v>
       </c>
@@ -1341,8 +1416,14 @@
       <c r="DI9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="2:120" x14ac:dyDescent="0.25">
+      <c r="DR9" t="s">
+        <v>50</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:138" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>51</v>
       </c>
@@ -1382,8 +1463,14 @@
       <c r="DI10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="2:120" x14ac:dyDescent="0.25">
+      <c r="DR10" t="s">
+        <v>51</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:138" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>52</v>
       </c>
@@ -1423,8 +1510,14 @@
       <c r="DI11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="2:120" x14ac:dyDescent="0.25">
+      <c r="DR11" t="s">
+        <v>52</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:138" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>53</v>
       </c>
@@ -1464,8 +1557,14 @@
       <c r="DI12" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="13" spans="2:120" x14ac:dyDescent="0.25">
+      <c r="DR12" t="s">
+        <v>131</v>
+      </c>
+      <c r="EA12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:138" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>54</v>
       </c>
@@ -1505,8 +1604,14 @@
       <c r="DI13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="2:120" x14ac:dyDescent="0.25">
+      <c r="DR13" t="s">
+        <v>54</v>
+      </c>
+      <c r="EA13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:138" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -1819,8 +1924,56 @@
       <c r="DP15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="2:120" x14ac:dyDescent="0.25">
+      <c r="DR15" t="s">
+        <v>55</v>
+      </c>
+      <c r="DS15" t="s">
+        <v>56</v>
+      </c>
+      <c r="DT15" t="s">
+        <v>57</v>
+      </c>
+      <c r="DU15" t="s">
+        <v>58</v>
+      </c>
+      <c r="DV15" t="s">
+        <v>59</v>
+      </c>
+      <c r="DW15" t="s">
+        <v>60</v>
+      </c>
+      <c r="DX15" t="s">
+        <v>61</v>
+      </c>
+      <c r="DY15" t="s">
+        <v>62</v>
+      </c>
+      <c r="EA15" t="s">
+        <v>55</v>
+      </c>
+      <c r="EB15" t="s">
+        <v>56</v>
+      </c>
+      <c r="EC15" t="s">
+        <v>57</v>
+      </c>
+      <c r="ED15" t="s">
+        <v>58</v>
+      </c>
+      <c r="EE15" t="s">
+        <v>59</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>60</v>
+      </c>
+      <c r="EG15" t="s">
+        <v>61</v>
+      </c>
+      <c r="EH15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:138" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>63</v>
       </c>
@@ -2113,28 +2266,76 @@
         <v>63</v>
       </c>
       <c r="DJ16">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="DK16">
-        <v>5336.37</v>
+        <v>1.8</v>
       </c>
       <c r="DL16">
-        <v>1</v>
+        <v>1.74</v>
       </c>
       <c r="DM16">
-        <v>0</v>
-      </c>
-      <c r="DN16" t="s">
-        <v>140</v>
+        <v>0.05</v>
+      </c>
+      <c r="DN16">
+        <v>58.97</v>
       </c>
       <c r="DO16">
-        <v>0</v>
-      </c>
-      <c r="DP16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="2:120" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+      <c r="DP16">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="DR16" t="s">
+        <v>63</v>
+      </c>
+      <c r="DS16">
+        <v>-3.06</v>
+      </c>
+      <c r="DT16">
+        <v>2.14</v>
+      </c>
+      <c r="DU16">
+        <v>0.05</v>
+      </c>
+      <c r="DV16" s="8">
+        <v>7.1000000000000002E-4</v>
+      </c>
+      <c r="DW16">
+        <v>3.08</v>
+      </c>
+      <c r="DX16">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="DY16">
+        <v>0.15179999999999999</v>
+      </c>
+      <c r="EA16" t="s">
+        <v>63</v>
+      </c>
+      <c r="EB16">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="EC16">
+        <v>4.24</v>
+      </c>
+      <c r="ED16">
+        <v>8425.86</v>
+      </c>
+      <c r="EE16">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="EF16">
+        <v>34565836.969999999</v>
+      </c>
+      <c r="EG16">
+        <v>4.54</v>
+      </c>
+      <c r="EH16">
+        <v>3.32E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:138" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>64</v>
       </c>
@@ -2384,7 +2585,7 @@
       <c r="CR17">
         <v>3.53</v>
       </c>
-      <c r="CS17" s="8">
+      <c r="CS17" s="15">
         <v>5.6999999999999998E-4</v>
       </c>
       <c r="CT17" s="8">
@@ -2424,31 +2625,79 @@
         <v>0.63900000000000001</v>
       </c>
       <c r="DI17" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="DJ17">
-        <v>-17.309999999999999</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="DK17">
-        <v>4357.13</v>
+        <v>0.06</v>
       </c>
       <c r="DL17" s="8">
-        <v>2.9999999999999997E-8</v>
+        <v>0.93</v>
       </c>
       <c r="DM17">
-        <v>0</v>
-      </c>
-      <c r="DN17" t="s">
-        <v>140</v>
+        <v>0.84</v>
+      </c>
+      <c r="DN17">
+        <v>1.04</v>
       </c>
       <c r="DO17" s="8">
-        <v>1.5999999999999999E-5</v>
+        <v>1.65</v>
       </c>
       <c r="DP17">
-        <v>0.99680000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="2:120" x14ac:dyDescent="0.25">
+        <v>0.1988</v>
+      </c>
+      <c r="DR17" t="s">
+        <v>129</v>
+      </c>
+      <c r="DS17">
+        <v>0.05</v>
+      </c>
+      <c r="DT17">
+        <v>0.05</v>
+      </c>
+      <c r="DU17" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="DV17">
+        <v>0.96</v>
+      </c>
+      <c r="DW17">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="DX17" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="DY17">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="EA17" t="s">
+        <v>149</v>
+      </c>
+      <c r="EB17">
+        <v>0.65</v>
+      </c>
+      <c r="EC17">
+        <v>1.43</v>
+      </c>
+      <c r="ED17">
+        <v>1.91</v>
+      </c>
+      <c r="EE17">
+        <v>0.12</v>
+      </c>
+      <c r="EF17">
+        <v>31.43</v>
+      </c>
+      <c r="EG17">
+        <v>0.2</v>
+      </c>
+      <c r="EH17">
+        <v>0.65169999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="2:138" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>65</v>
       </c>
@@ -2665,6 +2914,7 @@
       <c r="CN18" s="6">
         <v>3.6700000000000003E-2</v>
       </c>
+      <c r="CS18" s="14"/>
       <c r="CY18" t="s">
         <v>139</v>
       </c>
@@ -2689,8 +2939,80 @@
       <c r="DF18">
         <v>4.1700000000000001E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:120" x14ac:dyDescent="0.25">
+      <c r="DI18" t="s">
+        <v>130</v>
+      </c>
+      <c r="DJ18">
+        <v>-0.23</v>
+      </c>
+      <c r="DK18">
+        <v>1.19</v>
+      </c>
+      <c r="DL18">
+        <v>0.8</v>
+      </c>
+      <c r="DM18">
+        <v>0.08</v>
+      </c>
+      <c r="DN18">
+        <v>8.25</v>
+      </c>
+      <c r="DO18">
+        <v>0.04</v>
+      </c>
+      <c r="DP18">
+        <v>0.8498</v>
+      </c>
+      <c r="DR18" t="s">
+        <v>134</v>
+      </c>
+      <c r="DS18">
+        <v>-1.04</v>
+      </c>
+      <c r="DT18">
+        <v>2.88</v>
+      </c>
+      <c r="DU18">
+        <v>0.35</v>
+      </c>
+      <c r="DV18" s="8">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="DW18">
+        <v>101.06</v>
+      </c>
+      <c r="DX18">
+        <v>0.13</v>
+      </c>
+      <c r="DY18">
+        <v>0.71930000000000005</v>
+      </c>
+      <c r="EA18" t="s">
+        <v>129</v>
+      </c>
+      <c r="EB18">
+        <v>-0.16</v>
+      </c>
+      <c r="EC18">
+        <v>0.08</v>
+      </c>
+      <c r="ED18">
+        <v>0.85</v>
+      </c>
+      <c r="EE18">
+        <v>0.73</v>
+      </c>
+      <c r="EF18">
+        <v>1</v>
+      </c>
+      <c r="EG18">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="EH18">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:138" x14ac:dyDescent="0.25">
       <c r="U19" t="s">
         <v>75</v>
       </c>
@@ -2792,8 +3114,32 @@
       <c r="DK19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="2:120" x14ac:dyDescent="0.25">
+      <c r="EA19" t="s">
+        <v>134</v>
+      </c>
+      <c r="EB19">
+        <v>-12.77</v>
+      </c>
+      <c r="EC19">
+        <v>5.4</v>
+      </c>
+      <c r="ED19" s="8">
+        <v>2.7999999999999999E-6</v>
+      </c>
+      <c r="EE19" s="8">
+        <v>7.1999999999999997E-11</v>
+      </c>
+      <c r="EF19">
+        <v>0.11</v>
+      </c>
+      <c r="EG19">
+        <v>5.6</v>
+      </c>
+      <c r="EH19">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:138" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>66</v>
       </c>
@@ -2830,6 +3176,9 @@
       <c r="AO20">
         <v>44</v>
       </c>
+      <c r="AR20" t="s">
+        <v>144</v>
+      </c>
       <c r="AW20" t="s">
         <v>66</v>
       </c>
@@ -2875,8 +3224,26 @@
       <c r="DK20">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="2:120" x14ac:dyDescent="0.25">
+      <c r="DR20" t="s">
+        <v>69</v>
+      </c>
+      <c r="DS20">
+        <v>-17.66</v>
+      </c>
+      <c r="DT20">
+        <v>44</v>
+      </c>
+      <c r="EA20" t="s">
+        <v>66</v>
+      </c>
+      <c r="EB20" t="s">
+        <v>67</v>
+      </c>
+      <c r="EC20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:138" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>69</v>
       </c>
@@ -2922,6 +3289,9 @@
       <c r="AO21">
         <v>44</v>
       </c>
+      <c r="AR21" t="s">
+        <v>143</v>
+      </c>
       <c r="AW21" t="s">
         <v>69</v>
       </c>
@@ -2967,6 +3337,9 @@
       <c r="CI21">
         <v>43</v>
       </c>
+      <c r="CL21" t="s">
+        <v>140</v>
+      </c>
       <c r="CP21" t="s">
         <v>70</v>
       </c>
@@ -3000,8 +3373,32 @@
       <c r="DN21" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="2:120" x14ac:dyDescent="0.25">
+      <c r="DR21" t="s">
+        <v>70</v>
+      </c>
+      <c r="DS21">
+        <v>35.32</v>
+      </c>
+      <c r="DT21">
+        <v>44</v>
+      </c>
+      <c r="DV21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="DW21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="EA21" t="s">
+        <v>69</v>
+      </c>
+      <c r="EB21">
+        <v>-13.53</v>
+      </c>
+      <c r="EC21">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:138" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>70</v>
       </c>
@@ -3092,6 +3489,9 @@
       <c r="CI22">
         <v>43</v>
       </c>
+      <c r="CL22" t="s">
+        <v>141</v>
+      </c>
       <c r="CP22" t="s">
         <v>71</v>
       </c>
@@ -3123,11 +3523,36 @@
         <v>1</v>
       </c>
       <c r="DN22" s="7">
-        <f>+EXP(DJ$16+DJ$17*DM22)/(1+EXP(DJ$16+DJ$17*DM22))</f>
-        <v>3.0364246266023646E-8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:120" x14ac:dyDescent="0.25">
+        <f>+EXP(DJ$16+DJ$17*DM22+DJ18*DM22)/(1+EXP(DJ$16+DJ$17*DM22+DJ18*DM22))</f>
+        <v>0.56217650088579807</v>
+      </c>
+      <c r="DR22" t="s">
+        <v>71</v>
+      </c>
+      <c r="DS22">
+        <v>1</v>
+      </c>
+      <c r="DT22" t="s">
+        <v>72</v>
+      </c>
+      <c r="DV22" s="7">
+        <v>1</v>
+      </c>
+      <c r="DW22" s="7">
+        <f>+EXP(DS$16+DS$17*DV22+DS18*DV22)/(1+EXP(DS$16+DS$17*DV22+DS18*DV22))</f>
+        <v>1.7124033315727726E-2</v>
+      </c>
+      <c r="EA22" t="s">
+        <v>70</v>
+      </c>
+      <c r="EB22">
+        <v>27.06</v>
+      </c>
+      <c r="EC22">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:138" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>71</v>
       </c>
@@ -3209,6 +3634,9 @@
       <c r="CI23" t="s">
         <v>72</v>
       </c>
+      <c r="CL23" t="s">
+        <v>142</v>
+      </c>
       <c r="CY23" t="s">
         <v>70</v>
       </c>
@@ -3222,11 +3650,27 @@
         <v>0</v>
       </c>
       <c r="DN23" s="7">
-        <f>+EXP(DJ$16+DJ$17*DM23)/(1+EXP(DJ$16+DJ$17*DM23))</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:120" x14ac:dyDescent="0.25">
+        <f>+EXP(DJ$16+DJ$17*DM23+DJ18*DM23)/(1+EXP(DJ$16+DJ$17*DM23+DJ18*DM23))</f>
+        <v>0.63413559101080075</v>
+      </c>
+      <c r="DV23" s="7">
+        <v>0</v>
+      </c>
+      <c r="DW23" s="7">
+        <f>+EXP(DS$16+DS$17*DV23+DS18*DV23)/(1+EXP(DS$16+DS$17*DV23+DS18*DV23))</f>
+        <v>4.4787703049786735E-2</v>
+      </c>
+      <c r="EA23" t="s">
+        <v>71</v>
+      </c>
+      <c r="EB23">
+        <v>1</v>
+      </c>
+      <c r="EC23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:138" x14ac:dyDescent="0.25">
       <c r="D24" s="7" t="s">
         <v>74</v>
       </c>
@@ -3323,8 +3767,14 @@
       <c r="DB24" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="2:120" x14ac:dyDescent="0.25">
+      <c r="EC24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="ED24" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="2:138" x14ac:dyDescent="0.25">
       <c r="D25" s="7">
         <v>1</v>
       </c>
@@ -3410,8 +3860,15 @@
         <v>1.0583344344660139E-3</v>
       </c>
       <c r="DC25" s="8"/>
-    </row>
-    <row r="26" spans="2:120" x14ac:dyDescent="0.25">
+      <c r="EC25" s="7">
+        <v>1</v>
+      </c>
+      <c r="ED25" s="7">
+        <f>+EXP(EB16+EB17*EC25+EB18*EC25+EB19*EC25)/(1+EXP(EB16+EB17*EC25+EB18*EC25+EB19*EC25))</f>
+        <v>3.7687890508605916E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:138" x14ac:dyDescent="0.25">
       <c r="D26" s="7">
         <v>0</v>
       </c>
@@ -3458,8 +3915,8 @@
         <v>0</v>
       </c>
       <c r="BI26" s="7">
-        <f>+EXP(BG17+BG18*BH26+BG19*BH26)/(1+EXP(BG17+BG18*BH26+BG19*BH26))</f>
-        <v>0.46008511544443431</v>
+        <f>+EXP(BG16+BG17*BH26+BG18*BH26+BG19*BH26)/(1+EXP(BG16+BG17*BH26+BG18*BH26+BG19*BH26))</f>
+        <v>0.99988144322092209</v>
       </c>
       <c r="BQ26" s="7">
         <v>0</v>
@@ -3496,21 +3953,37 @@
         <f>+EXP(CZ16+CZ17*DA26+CZ18*DA26)/(1+EXP(CZ16+CZ17*DA26+CZ18*DA26))</f>
         <v>0.93086157965665317</v>
       </c>
-    </row>
-    <row r="28" spans="2:120" x14ac:dyDescent="0.25">
+      <c r="EC26" s="7">
+        <v>0</v>
+      </c>
+      <c r="ED26" s="7">
+        <f>+EXP(EB16+EB17*EC26+EB18*EC26+EB19*EC26)/(1+EXP(EB16+EB17*EC26+EB18*EC26+EB19*EC26))</f>
+        <v>0.99988144322092209</v>
+      </c>
+    </row>
+    <row r="28" spans="2:138" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>121</v>
       </c>
       <c r="L28" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="29" spans="2:120" x14ac:dyDescent="0.25">
+      <c r="BX28" s="8">
+        <v>4.2909999999999997E-11</v>
+      </c>
+      <c r="BY28" s="17">
+        <v>865827.5</v>
+      </c>
+      <c r="CA28" s="17">
+        <v>5.7564390000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:138" x14ac:dyDescent="0.25">
       <c r="U29" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="2:120" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:138" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>122</v>
       </c>
@@ -3518,7 +3991,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="2:120" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:138" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>123</v>
       </c>
@@ -3528,8 +4001,11 @@
       <c r="U31" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="32" spans="2:120" x14ac:dyDescent="0.25">
+      <c r="CB31" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="2:138" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>124</v>
       </c>
@@ -3538,12 +4014,18 @@
       </c>
       <c r="U32" t="s">
         <v>123</v>
+      </c>
+      <c r="CB32" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="2:88" x14ac:dyDescent="0.25">
       <c r="U33" t="s">
         <v>124</v>
       </c>
+      <c r="CB33" s="4" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="34" spans="2:88" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
@@ -3552,6 +4034,9 @@
       <c r="L34" t="s">
         <v>125</v>
       </c>
+      <c r="CB34" s="5" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="35" spans="2:88" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
@@ -3573,6 +4058,9 @@
       </c>
       <c r="U36" t="s">
         <v>78</v>
+      </c>
+      <c r="CD36" s="16">
+        <v>6078984</v>
       </c>
       <c r="CJ36" s="8"/>
     </row>
